--- a/Somalia-COVID-impact/Results_COVID_Measles_National.xlsx
+++ b/Somalia-COVID-impact/Results_COVID_Measles_National.xlsx
@@ -523,31 +523,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.5</v>
+        <v>14.64</v>
       </c>
       <c r="C3" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>3.89</v>
+        <v>2.53</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.84</v>
+        <v>13.45</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="J3" t="n">
-        <v>59.91</v>
+        <v>68.48999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.68</v>
+        <v>7.89</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>3.14</v>
+        <v>1.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15.05</v>
+        <v>15.16</v>
       </c>
       <c r="I4" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="J4" t="n">
-        <v>62.38</v>
+        <v>74.73999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -587,31 +587,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.57</v>
+        <v>4.27</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
-        <v>2.52</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16.75</v>
+        <v>15.95</v>
       </c>
       <c r="I5" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>64.47</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="6">
@@ -619,31 +619,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.05</v>
+        <v>2.31</v>
       </c>
       <c r="C6" t="n">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="E6" t="n">
-        <v>2.02</v>
+        <v>0.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>16.23</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>66.26000000000001</v>
+        <v>80.09</v>
       </c>
     </row>
     <row r="7">
@@ -651,31 +651,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.99</v>
+        <v>1.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>0.09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E7" t="n">
-        <v>1.61</v>
+        <v>0.19</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.85</v>
+        <v>16.23</v>
       </c>
       <c r="I7" t="n">
-        <v>2.43</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>67.83</v>
+        <v>81.20999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -683,31 +683,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.33</v>
+        <v>0.68</v>
       </c>
       <c r="C8" t="n">
-        <v>1.06</v>
+        <v>0.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>1.27</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>19.33</v>
+        <v>16.07</v>
       </c>
       <c r="I8" t="n">
-        <v>3.14</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>69.23</v>
+        <v>81.89</v>
       </c>
     </row>
     <row r="9">
@@ -715,31 +715,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.97</v>
+        <v>0.37</v>
       </c>
       <c r="C9" t="n">
-        <v>1.13</v>
+        <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.46</v>
+        <v>15.81</v>
       </c>
       <c r="I9" t="n">
-        <v>3.98</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>70.51000000000001</v>
+        <v>82.34999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -747,31 +747,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.88</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2</v>
+        <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.77</v>
+        <v>0.03</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28</v>
+        <v>15.49</v>
       </c>
       <c r="I10" t="n">
-        <v>4.94</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>71.72</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="11">
@@ -779,31 +779,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.99</v>
+        <v>0.11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.26</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18.81</v>
+        <v>15.13</v>
       </c>
       <c r="I11" t="n">
-        <v>6.01</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>72.88</v>
+        <v>82.97</v>
       </c>
     </row>
     <row r="12">
@@ -811,31 +811,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.27</v>
+        <v>0.06</v>
       </c>
       <c r="C12" t="n">
-        <v>1.32</v>
+        <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>18.09</v>
+        <v>14.75</v>
       </c>
       <c r="I12" t="n">
-        <v>7.17</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>74.04000000000001</v>
+        <v>83.23</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +843,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.69</v>
+        <v>0.03</v>
       </c>
       <c r="C13" t="n">
-        <v>1.37</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.16</v>
+        <v>14.34</v>
       </c>
       <c r="I13" t="n">
-        <v>8.380000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>75.20999999999999</v>
+        <v>83.48</v>
       </c>
     </row>
     <row r="14">
@@ -875,31 +875,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.22</v>
+        <v>0.02</v>
       </c>
       <c r="C14" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06</v>
+        <v>13.92</v>
       </c>
       <c r="I14" t="n">
-        <v>9.619999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="J14" t="n">
-        <v>76.41</v>
+        <v>83.73999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -907,31 +907,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.85</v>
+        <v>0.01</v>
       </c>
       <c r="C15" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.84</v>
+        <v>13.49</v>
       </c>
       <c r="I15" t="n">
-        <v>10.84</v>
+        <v>3.62</v>
       </c>
       <c r="J15" t="n">
-        <v>77.66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -939,31 +939,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.54</v>
+        <v>0.01</v>
       </c>
       <c r="C16" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.56</v>
+        <v>13.04</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>78.95</v>
+        <v>84.27</v>
       </c>
     </row>
     <row r="17">
@@ -971,31 +971,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.27</v>
+        <v>12.6</v>
       </c>
       <c r="I17" t="n">
-        <v>13.07</v>
+        <v>3.97</v>
       </c>
       <c r="J17" t="n">
-        <v>80.3</v>
+        <v>84.55</v>
       </c>
     </row>
     <row r="18">
@@ -1003,31 +1003,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.01</v>
+        <v>12.14</v>
       </c>
       <c r="I18" t="n">
-        <v>14.01</v>
+        <v>4.14</v>
       </c>
       <c r="J18" t="n">
-        <v>81.69</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="19">
@@ -1035,31 +1035,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9.82</v>
+        <v>11.69</v>
       </c>
       <c r="I19" t="n">
-        <v>14.81</v>
+        <v>4.29</v>
       </c>
       <c r="J19" t="n">
-        <v>83.13</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="20">
@@ -1067,31 +1067,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.710000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="I20" t="n">
-        <v>15.45</v>
+        <v>4.42</v>
       </c>
       <c r="J20" t="n">
-        <v>84.61</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="21">
@@ -1099,31 +1099,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.71</v>
+        <v>10.8</v>
       </c>
       <c r="I21" t="n">
-        <v>15.93</v>
+        <v>4.55</v>
       </c>
       <c r="J21" t="n">
-        <v>86.11</v>
+        <v>85.77</v>
       </c>
     </row>
     <row r="22">
@@ -1131,31 +1131,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.82</v>
+        <v>10.36</v>
       </c>
       <c r="I22" t="n">
-        <v>16.25</v>
+        <v>4.66</v>
       </c>
       <c r="J22" t="n">
-        <v>87.63</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1163,31 +1163,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.03</v>
+        <v>9.93</v>
       </c>
       <c r="I23" t="n">
-        <v>16.43</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>89.16</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="24">
@@ -1195,31 +1195,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.35</v>
+        <v>9.51</v>
       </c>
       <c r="I24" t="n">
-        <v>16.49</v>
+        <v>4.83</v>
       </c>
       <c r="J24" t="n">
-        <v>90.69</v>
+        <v>86.78</v>
       </c>
     </row>
     <row r="25">
@@ -1227,31 +1227,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.77</v>
+        <v>9.1</v>
       </c>
       <c r="I25" t="n">
-        <v>16.44</v>
+        <v>4.89</v>
       </c>
       <c r="J25" t="n">
-        <v>92.20999999999999</v>
+        <v>87.13</v>
       </c>
     </row>
     <row r="26">
@@ -1259,31 +1259,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.27</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>16.29</v>
+        <v>4.93</v>
       </c>
       <c r="J26" t="n">
-        <v>93.70999999999999</v>
+        <v>87.48</v>
       </c>
     </row>
     <row r="27">
@@ -1291,31 +1291,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4</v>
+        <v>-0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.84</v>
+        <v>8.33</v>
       </c>
       <c r="I27" t="n">
-        <v>16.06</v>
+        <v>4.96</v>
       </c>
       <c r="J27" t="n">
-        <v>95.19</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="28">
@@ -1323,31 +1323,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.48</v>
+        <v>7.97</v>
       </c>
       <c r="I28" t="n">
-        <v>15.77</v>
+        <v>4.97</v>
       </c>
       <c r="J28" t="n">
-        <v>96.64</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1355,31 +1355,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.92</v>
+        <v>-0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.51</v>
+        <v>-0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.17</v>
+        <v>7.62</v>
       </c>
       <c r="I29" t="n">
-        <v>15.43</v>
+        <v>4.96</v>
       </c>
       <c r="J29" t="n">
-        <v>98.06</v>
+        <v>88.54000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1387,31 +1387,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.82</v>
+        <v>-0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>7.29</v>
       </c>
       <c r="I30" t="n">
-        <v>15.04</v>
+        <v>4.94</v>
       </c>
       <c r="J30" t="n">
-        <v>99.44</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="31">
@@ -1419,31 +1419,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.72</v>
+        <v>-0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.48</v>
+        <v>-0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.68</v>
+        <v>6.97</v>
       </c>
       <c r="I31" t="n">
-        <v>14.63</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>100.78</v>
+        <v>89.23999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1451,31 +1451,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.49</v>
+        <v>6.67</v>
       </c>
       <c r="I32" t="n">
-        <v>14.18</v>
+        <v>4.85</v>
       </c>
       <c r="J32" t="n">
-        <v>102.07</v>
+        <v>89.59</v>
       </c>
     </row>
     <row r="33">
@@ -1483,31 +1483,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.01</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.32</v>
+        <v>6.39</v>
       </c>
       <c r="I33" t="n">
-        <v>13.72</v>
+        <v>4.79</v>
       </c>
       <c r="J33" t="n">
-        <v>103.32</v>
+        <v>89.94</v>
       </c>
     </row>
     <row r="34">
@@ -1515,31 +1515,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.17</v>
+        <v>6.12</v>
       </c>
       <c r="I34" t="n">
-        <v>13.25</v>
+        <v>4.72</v>
       </c>
       <c r="J34" t="n">
-        <v>104.52</v>
+        <v>90.28</v>
       </c>
     </row>
     <row r="35">
@@ -1547,13 +1547,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1562,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.05</v>
+        <v>5.87</v>
       </c>
       <c r="I35" t="n">
-        <v>12.76</v>
+        <v>4.64</v>
       </c>
       <c r="J35" t="n">
-        <v>105.67</v>
+        <v>90.61</v>
       </c>
     </row>
     <row r="36">
@@ -1579,31 +1579,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.39</v>
+        <v>-0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.93</v>
+        <v>5.63</v>
       </c>
       <c r="I36" t="n">
-        <v>12.27</v>
+        <v>4.55</v>
       </c>
       <c r="J36" t="n">
-        <v>106.77</v>
+        <v>90.94</v>
       </c>
     </row>
     <row r="37">
@@ -1611,13 +1611,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.37</v>
+        <v>-0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1626,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.83</v>
+        <v>5.41</v>
       </c>
       <c r="I37" t="n">
-        <v>11.78</v>
+        <v>4.45</v>
       </c>
       <c r="J37" t="n">
-        <v>107.82</v>
+        <v>91.26000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1643,31 +1643,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.65</v>
+        <v>-0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.74</v>
+        <v>5.2</v>
       </c>
       <c r="I38" t="n">
-        <v>11.29</v>
+        <v>4.35</v>
       </c>
       <c r="J38" t="n">
-        <v>108.82</v>
+        <v>91.58</v>
       </c>
     </row>
     <row r="39">
@@ -1675,31 +1675,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.59</v>
+        <v>-0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.66</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>10.81</v>
+        <v>4.24</v>
       </c>
       <c r="J39" t="n">
-        <v>109.78</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="40">
@@ -1707,31 +1707,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3</v>
+        <v>-0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.59</v>
+        <v>4.82</v>
       </c>
       <c r="I40" t="n">
-        <v>10.32</v>
+        <v>4.12</v>
       </c>
       <c r="J40" t="n">
-        <v>110.68</v>
+        <v>92.18000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1739,31 +1739,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28</v>
+        <v>-0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.52</v>
+        <v>4.64</v>
       </c>
       <c r="I41" t="n">
-        <v>9.85</v>
+        <v>4.01</v>
       </c>
       <c r="J41" t="n">
-        <v>111.54</v>
+        <v>92.47</v>
       </c>
     </row>
     <row r="42">
@@ -1771,31 +1771,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.41</v>
+        <v>-0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.46</v>
+        <v>4.48</v>
       </c>
       <c r="I42" t="n">
-        <v>9.390000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J42" t="n">
-        <v>112.36</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="43">
@@ -1803,31 +1803,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36</v>
+        <v>-0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="I43" t="n">
-        <v>8.93</v>
+        <v>3.76</v>
       </c>
       <c r="J43" t="n">
-        <v>113.12</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="44">
@@ -1835,13 +1835,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21</v>
+        <v>-0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.34</v>
+        <v>4.19</v>
       </c>
       <c r="I44" t="n">
-        <v>8.49</v>
+        <v>3.64</v>
       </c>
       <c r="J44" t="n">
-        <v>113.85</v>
+        <v>93.29000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1867,31 +1867,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.47</v>
+        <v>-0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.19</v>
+        <v>-0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.29</v>
+        <v>4.05</v>
       </c>
       <c r="I45" t="n">
-        <v>8.06</v>
+        <v>3.52</v>
       </c>
       <c r="J45" t="n">
-        <v>114.53</v>
+        <v>93.55</v>
       </c>
     </row>
     <row r="46">
@@ -1899,31 +1899,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.42</v>
+        <v>-0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.18</v>
+        <v>-0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.24</v>
+        <v>3.93</v>
       </c>
       <c r="I46" t="n">
-        <v>7.64</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
-        <v>115.17</v>
+        <v>93.79000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1931,31 +1931,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21</v>
+        <v>-0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.2</v>
+        <v>3.81</v>
       </c>
       <c r="I47" t="n">
-        <v>7.24</v>
+        <v>3.27</v>
       </c>
       <c r="J47" t="n">
-        <v>115.78</v>
+        <v>94.03</v>
       </c>
     </row>
     <row r="48">
@@ -1963,31 +1963,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.18</v>
+        <v>-0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.16</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>6.85</v>
+        <v>3.15</v>
       </c>
       <c r="J48" t="n">
-        <v>116.34</v>
+        <v>94.26000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1995,13 +1995,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.13</v>
+        <v>-0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.12</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>6.48</v>
+        <v>3.03</v>
       </c>
       <c r="J49" t="n">
-        <v>116.88</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="50">
@@ -2027,31 +2027,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24</v>
+        <v>-0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.11</v>
+        <v>-0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.08</v>
+        <v>3.51</v>
       </c>
       <c r="I50" t="n">
-        <v>6.12</v>
+        <v>2.92</v>
       </c>
       <c r="J50" t="n">
-        <v>117.38</v>
+        <v>94.69</v>
       </c>
     </row>
     <row r="51">
@@ -2059,31 +2059,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.21</v>
+        <v>-0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1</v>
+        <v>-0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.04</v>
+        <v>3.42</v>
       </c>
       <c r="I51" t="n">
-        <v>5.78</v>
+        <v>2.8</v>
       </c>
       <c r="J51" t="n">
-        <v>117.85</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2091,31 +2091,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.11</v>
+        <v>-0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04</v>
+        <v>3.34</v>
       </c>
       <c r="I52" t="n">
-        <v>5.78</v>
+        <v>2.69</v>
       </c>
       <c r="J52" t="n">
-        <v>117.85</v>
+        <v>95.09</v>
       </c>
     </row>
     <row r="53">
@@ -2123,31 +2123,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09</v>
+        <v>-0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.01</v>
+        <v>3.26</v>
       </c>
       <c r="I53" t="n">
-        <v>5.45</v>
+        <v>2.58</v>
       </c>
       <c r="J53" t="n">
-        <v>118.28</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="54">
@@ -2155,31 +2155,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08</v>
+        <v>-0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.98</v>
+        <v>3.18</v>
       </c>
       <c r="I54" t="n">
-        <v>5.13</v>
+        <v>2.47</v>
       </c>
       <c r="J54" t="n">
-        <v>118.69</v>
+        <v>95.45999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2187,31 +2187,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14</v>
+        <v>-0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.95</v>
+        <v>3.12</v>
       </c>
       <c r="I55" t="n">
-        <v>4.83</v>
+        <v>2.37</v>
       </c>
       <c r="J55" t="n">
-        <v>119.07</v>
+        <v>95.64</v>
       </c>
     </row>
     <row r="56">
@@ -2219,31 +2219,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06</v>
+        <v>-0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.92</v>
+        <v>3.05</v>
       </c>
       <c r="I56" t="n">
-        <v>4.55</v>
+        <v>2.27</v>
       </c>
       <c r="J56" t="n">
-        <v>119.43</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="57">
@@ -2251,31 +2251,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05</v>
+        <v>-0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9</v>
+        <v>2.99</v>
       </c>
       <c r="I57" t="n">
-        <v>4.28</v>
+        <v>2.17</v>
       </c>
       <c r="J57" t="n">
-        <v>119.76</v>
+        <v>95.95999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2283,31 +2283,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.87</v>
+        <v>2.93</v>
       </c>
       <c r="I58" t="n">
-        <v>4.03</v>
+        <v>2.07</v>
       </c>
       <c r="J58" t="n">
-        <v>120.08</v>
+        <v>96.11</v>
       </c>
     </row>
     <row r="59">
@@ -2315,31 +2315,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.85</v>
+        <v>2.88</v>
       </c>
       <c r="I59" t="n">
-        <v>3.78</v>
+        <v>1.98</v>
       </c>
       <c r="J59" t="n">
-        <v>120.37</v>
+        <v>96.26000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2347,31 +2347,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.83</v>
+        <v>2.83</v>
       </c>
       <c r="I60" t="n">
-        <v>3.56</v>
+        <v>1.89</v>
       </c>
       <c r="J60" t="n">
-        <v>120.65</v>
+        <v>96.39</v>
       </c>
     </row>
     <row r="61">
@@ -2379,31 +2379,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.78</v>
       </c>
       <c r="I61" t="n">
-        <v>3.34</v>
+        <v>1.81</v>
       </c>
       <c r="J61" t="n">
-        <v>120.9</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="62">
@@ -2411,31 +2411,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.79</v>
+        <v>2.74</v>
       </c>
       <c r="I62" t="n">
-        <v>3.14</v>
+        <v>1.73</v>
       </c>
       <c r="J62" t="n">
-        <v>121.15</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2443,31 +2443,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.78</v>
+        <v>2.7</v>
       </c>
       <c r="I63" t="n">
-        <v>2.94</v>
+        <v>1.65</v>
       </c>
       <c r="J63" t="n">
-        <v>121.37</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="64">
@@ -2475,31 +2475,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.76</v>
+        <v>2.66</v>
       </c>
       <c r="I64" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="J64" t="n">
-        <v>121.58</v>
+        <v>96.89</v>
       </c>
     </row>
     <row r="65">
@@ -2507,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2522,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.75</v>
+        <v>2.62</v>
       </c>
       <c r="I65" t="n">
-        <v>2.59</v>
+        <v>1.5</v>
       </c>
       <c r="J65" t="n">
-        <v>121.78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
@@ -2539,31 +2539,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.73</v>
+        <v>2.59</v>
       </c>
       <c r="I66" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="J66" t="n">
-        <v>121.97</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2571,31 +2571,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.72</v>
+        <v>2.56</v>
       </c>
       <c r="I67" t="n">
-        <v>2.28</v>
+        <v>1.36</v>
       </c>
       <c r="J67" t="n">
-        <v>122.14</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="68">
@@ -2603,31 +2603,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.71</v>
+        <v>2.53</v>
       </c>
       <c r="I68" t="n">
-        <v>2.14</v>
+        <v>1.3</v>
       </c>
       <c r="J68" t="n">
-        <v>122.3</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="69">
@@ -2635,31 +2635,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="J69" t="n">
-        <v>122.45</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="70">
@@ -2667,31 +2667,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.47</v>
       </c>
       <c r="I70" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="J70" t="n">
-        <v>122.6</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="71">
@@ -2699,31 +2699,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.68</v>
+        <v>2.45</v>
       </c>
       <c r="I71" t="n">
-        <v>1.76</v>
+        <v>1.12</v>
       </c>
       <c r="J71" t="n">
-        <v>122.73</v>
+        <v>97.55</v>
       </c>
     </row>
     <row r="72">
@@ -2731,31 +2731,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.67</v>
+        <v>2.42</v>
       </c>
       <c r="I72" t="n">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="J72" t="n">
-        <v>122.85</v>
+        <v>97.63</v>
       </c>
     </row>
     <row r="73">
@@ -2763,31 +2763,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.66</v>
+        <v>2.4</v>
       </c>
       <c r="I73" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="J73" t="n">
-        <v>122.97</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -2795,31 +2795,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.65</v>
+        <v>2.38</v>
       </c>
       <c r="I74" t="n">
-        <v>1.45</v>
+        <v>0.96</v>
       </c>
       <c r="J74" t="n">
-        <v>123.08</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="75">
@@ -2827,10 +2827,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.64</v>
+        <v>2.36</v>
       </c>
       <c r="I75" t="n">
-        <v>1.36</v>
+        <v>0.92</v>
       </c>
       <c r="J75" t="n">
-        <v>123.18</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="76">
@@ -2859,10 +2859,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.64</v>
+        <v>2.34</v>
       </c>
       <c r="I76" t="n">
-        <v>1.27</v>
+        <v>0.87</v>
       </c>
       <c r="J76" t="n">
-        <v>123.27</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="77">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2903,19 +2903,19 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.63</v>
+        <v>2.32</v>
       </c>
       <c r="I77" t="n">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="J77" t="n">
-        <v>123.36</v>
+        <v>97.97</v>
       </c>
     </row>
     <row r="78">
@@ -2923,31 +2923,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.62</v>
+        <v>2.31</v>
       </c>
       <c r="I78" t="n">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="J78" t="n">
-        <v>123.45</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="79">
@@ -2955,31 +2955,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.62</v>
+        <v>2.29</v>
       </c>
       <c r="I79" t="n">
-        <v>1.04</v>
+        <v>0.75</v>
       </c>
       <c r="J79" t="n">
-        <v>123.52</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="80">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2999,19 +2999,19 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.61</v>
+        <v>2.27</v>
       </c>
       <c r="I80" t="n">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
       <c r="J80" t="n">
-        <v>123.6</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="81">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.61</v>
+        <v>2.26</v>
       </c>
       <c r="I81" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="J81" t="n">
-        <v>123.67</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3063,19 +3063,19 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6</v>
+        <v>2.25</v>
       </c>
       <c r="I82" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="J82" t="n">
-        <v>123.73</v>
+        <v>98.23</v>
       </c>
     </row>
     <row r="83">
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3098,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6</v>
+        <v>2.23</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="J83" t="n">
-        <v>123.79</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="84">
@@ -3121,25 +3121,25 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.59</v>
+        <v>2.22</v>
       </c>
       <c r="I84" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="J84" t="n">
-        <v>123.84</v>
+        <v>98.31999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.59</v>
+        <v>2.21</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="J85" t="n">
-        <v>123.9</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="86">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3191,19 +3191,19 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.59</v>
+        <v>2.2</v>
       </c>
       <c r="I86" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="J86" t="n">
-        <v>123.95</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3223,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.58</v>
+        <v>2.19</v>
       </c>
       <c r="I87" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="J87" t="n">
-        <v>123.99</v>
+        <v>98.43000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.58</v>
+        <v>2.18</v>
       </c>
       <c r="I88" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="J88" t="n">
-        <v>124.03</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="89">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -3287,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.58</v>
+        <v>2.17</v>
       </c>
       <c r="I89" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="J89" t="n">
-        <v>124.07</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="90">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.58</v>
+        <v>2.16</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="J90" t="n">
-        <v>124.11</v>
+        <v>98.53</v>
       </c>
     </row>
     <row r="91">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.57</v>
+        <v>2.16</v>
       </c>
       <c r="I91" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="J91" t="n">
-        <v>124.15</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="92">
@@ -3371,31 +3371,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.57</v>
+        <v>2.15</v>
       </c>
       <c r="I92" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="J92" t="n">
-        <v>124.18</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="93">
@@ -3403,31 +3403,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.57</v>
+        <v>2.14</v>
       </c>
       <c r="I93" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="J93" t="n">
-        <v>124.21</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="94">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3447,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.57</v>
+        <v>2.13</v>
       </c>
       <c r="I94" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="J94" t="n">
-        <v>124.24</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="95">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3479,19 +3479,19 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="I95" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="J95" t="n">
-        <v>124.27</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="96">
@@ -3502,28 +3502,28 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="I96" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="J96" t="n">
-        <v>124.29</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="97">
@@ -3531,31 +3531,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="I97" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="J97" t="n">
-        <v>124.31</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -3563,31 +3563,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="J98" t="n">
-        <v>124.34</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="99">
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="J99" t="n">
-        <v>124.36</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="100">
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3639,19 +3639,19 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="J100" t="n">
-        <v>124.38</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="101">
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -3671,19 +3671,19 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="I101" t="n">
         <v>0.24</v>
       </c>
       <c r="J101" t="n">
-        <v>124.39</v>
+        <v>98.78</v>
       </c>
     </row>
     <row r="102">
@@ -3691,31 +3691,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.55</v>
+        <v>2.09</v>
       </c>
       <c r="I102" t="n">
         <v>0.23</v>
       </c>
       <c r="J102" t="n">
-        <v>124.41</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="103">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3738,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.55</v>
+        <v>2.09</v>
       </c>
       <c r="I103" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J103" t="n">
-        <v>124.43</v>
+        <v>98.81999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.55</v>
+        <v>2.08</v>
       </c>
       <c r="I104" t="n">
         <v>0.2</v>
       </c>
       <c r="J104" t="n">
-        <v>124.44</v>
+        <v>98.83</v>
       </c>
     </row>
     <row r="105">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3799,19 +3799,19 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.55</v>
+        <v>2.08</v>
       </c>
       <c r="I105" t="n">
         <v>0.19</v>
       </c>
       <c r="J105" t="n">
-        <v>124.45</v>
+        <v>98.84999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -3822,28 +3822,28 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.55</v>
+        <v>2.08</v>
       </c>
       <c r="I106" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J106" t="n">
-        <v>124.47</v>
+        <v>98.86</v>
       </c>
     </row>
     <row r="107">
@@ -3851,31 +3851,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.55</v>
+        <v>2.07</v>
       </c>
       <c r="I107" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J107" t="n">
-        <v>124.48</v>
+        <v>98.87</v>
       </c>
     </row>
     <row r="108">
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.55</v>
+        <v>2.07</v>
       </c>
       <c r="I108" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J108" t="n">
-        <v>124.49</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="109">
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.55</v>
+        <v>2.07</v>
       </c>
       <c r="I109" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J109" t="n">
-        <v>124.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -3965,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="I110" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J110" t="n">
-        <v>124.51</v>
+        <v>98.91</v>
       </c>
     </row>
     <row r="111">
@@ -3979,31 +3979,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E111" t="n">
         <v>-0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="I111" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="J111" t="n">
-        <v>124.52</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="112">
@@ -4011,31 +4011,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E112" t="n">
         <v>-0</v>
       </c>
       <c r="F112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="I112" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J112" t="n">
-        <v>124.53</v>
+        <v>98.93000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
       </c>
       <c r="I113" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J113" t="n">
-        <v>124.54</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="114">
@@ -4093,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.55</v>
+        <v>2.05</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J114" t="n">
-        <v>124.54</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="115">
@@ -4122,16 +4122,16 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.54</v>
+        <v>2.05</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J115" t="n">
-        <v>124.55</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="116">
@@ -4139,7 +4139,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -4148,22 +4148,22 @@
         <v>-0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.54</v>
+        <v>2.05</v>
       </c>
       <c r="I116" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="J116" t="n">
-        <v>124.56</v>
+        <v>98.95999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4171,7 +4171,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>-0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.54</v>
+        <v>2.05</v>
       </c>
       <c r="I117" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J117" t="n">
-        <v>124.56</v>
+        <v>98.97</v>
       </c>
     </row>
     <row r="118">
@@ -4206,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.54</v>
+        <v>2.05</v>
       </c>
       <c r="I118" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J118" t="n">
-        <v>124.57</v>
+        <v>98.98</v>
       </c>
     </row>
     <row r="119">
@@ -4238,28 +4238,28 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I119" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="J119" t="n">
-        <v>124.58</v>
+        <v>98.98</v>
       </c>
     </row>
     <row r="120">
@@ -4282,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="J120" t="n">
-        <v>124.58</v>
+        <v>98.98999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4299,7 +4299,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -4308,22 +4308,22 @@
         <v>-0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J121" t="n">
-        <v>124.59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
@@ -4334,28 +4334,28 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J122" t="n">
-        <v>124.59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
@@ -4381,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I123" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>124.59</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.54</v>
+        <v>2.04</v>
       </c>
       <c r="I124" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J124" t="n">
-        <v>124.6</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4430,28 +4430,28 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I125" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J125" t="n">
-        <v>124.6</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="126">
@@ -4459,31 +4459,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I126" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J126" t="n">
-        <v>124.61</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="127">
@@ -4509,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I127" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J127" t="n">
-        <v>124.61</v>
+        <v>99.03</v>
       </c>
     </row>
     <row r="128">
@@ -4541,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I128" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J128" t="n">
-        <v>124.61</v>
+        <v>99.03</v>
       </c>
     </row>
     <row r="129">
@@ -4558,28 +4558,28 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I129" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J129" t="n">
-        <v>124.61</v>
+        <v>99.03</v>
       </c>
     </row>
     <row r="130">
@@ -4587,7 +4587,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>-0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4605,13 +4605,13 @@
         <v>-0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J130" t="n">
-        <v>124.62</v>
+        <v>99.04000000000001</v>
       </c>
     </row>
     <row r="131">
@@ -4637,13 +4637,13 @@
         <v>-0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I131" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J131" t="n">
-        <v>124.62</v>
+        <v>99.04000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -4654,28 +4654,28 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D132" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G132" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I132" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J132" t="n">
-        <v>124.62</v>
+        <v>99.04000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -4686,28 +4686,28 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D133" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G133" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I133" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J133" t="n">
-        <v>124.62</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="134">
@@ -4733,13 +4733,13 @@
         <v>-0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J134" t="n">
-        <v>124.63</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="135">
@@ -4747,7 +4747,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -4756,22 +4756,22 @@
         <v>-0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="I135" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J135" t="n">
-        <v>124.63</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="136">
@@ -4797,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I136" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J136" t="n">
-        <v>124.63</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="137">
@@ -4829,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I137" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J137" t="n">
-        <v>124.63</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="138">
@@ -4861,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I138" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J138" t="n">
-        <v>124.63</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="139">
@@ -4875,31 +4875,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C139" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F139" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I139" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J139" t="n">
-        <v>124.63</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="140">
@@ -4907,31 +4907,31 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I140" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J140" t="n">
-        <v>124.64</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I141" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J141" t="n">
-        <v>124.64</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -4974,28 +4974,28 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D142" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G142" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I142" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J142" t="n">
-        <v>124.64</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5006,28 +5006,28 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J143" t="n">
-        <v>124.64</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -5035,7 +5035,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>-0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5053,13 +5053,13 @@
         <v>-0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I144" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J144" t="n">
-        <v>124.64</v>
+        <v>99.06999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -5067,7 +5067,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>-0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5085,13 +5085,13 @@
         <v>-0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J145" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="146">
@@ -5102,28 +5102,28 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D146" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G146" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J146" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="147">
@@ -5134,28 +5134,28 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D147" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G147" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J147" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="148">
@@ -5166,28 +5166,28 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J148" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="149">
@@ -5195,31 +5195,31 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C149" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F149" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H149" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I149" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J149" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="150">
@@ -5227,31 +5227,31 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C150" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F150" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J150" t="n">
-        <v>124.64</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="151">
@@ -5277,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J151" t="n">
-        <v>124.65</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="152">
@@ -5309,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I152" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J152" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="153">
@@ -5326,28 +5326,28 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H153" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J153" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="154">
@@ -5355,31 +5355,31 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I154" t="n">
         <v>0.01</v>
       </c>
       <c r="J154" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="155">
@@ -5390,28 +5390,28 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I155" t="n">
         <v>0.01</v>
       </c>
       <c r="J155" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="156">
@@ -5422,28 +5422,28 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I156" t="n">
         <v>0.01</v>
       </c>
       <c r="J156" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="157">
@@ -5454,28 +5454,28 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I157" t="n">
         <v>0.01</v>
       </c>
       <c r="J157" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="158">
@@ -5483,7 +5483,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>-0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5501,13 +5501,13 @@
         <v>-0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I158" t="n">
         <v>0.01</v>
       </c>
       <c r="J158" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="159">
@@ -5515,7 +5515,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>-0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5533,13 +5533,13 @@
         <v>-0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I159" t="n">
         <v>0.01</v>
       </c>
       <c r="J159" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="160">
@@ -5550,28 +5550,28 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J160" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="161">
@@ -5582,28 +5582,28 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D161" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G161" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J161" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="162">
@@ -5614,28 +5614,28 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.54</v>
+        <v>2.02</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J162" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="163">
@@ -5643,31 +5643,31 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J163" t="n">
-        <v>124.65</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="164">
@@ -5675,31 +5675,31 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J164" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -5725,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J165" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -5757,13 +5757,13 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J166" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -5771,31 +5771,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J167" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5803,7 +5803,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>-0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -5821,13 +5821,13 @@
         <v>-0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J168" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -5844,7 +5844,7 @@
         <v>-0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5853,13 +5853,13 @@
         <v>-0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J169" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -5870,28 +5870,28 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D170" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G170" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J170" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -5902,28 +5902,28 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D171" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G171" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J171" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -5949,13 +5949,13 @@
         <v>-0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J172" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -5963,7 +5963,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>-0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -5981,13 +5981,13 @@
         <v>-0</v>
       </c>
       <c r="H173" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J173" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -5998,28 +5998,28 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D174" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G174" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -6030,28 +6030,28 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D175" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G175" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -6094,28 +6094,28 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H177" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="178">
@@ -6123,31 +6123,31 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H178" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -6205,13 +6205,13 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -6222,28 +6222,28 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D181" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G181" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -6251,7 +6251,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>-0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6269,13 +6269,13 @@
         <v>-0</v>
       </c>
       <c r="H182" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -6286,28 +6286,28 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D183" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G183" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -6318,28 +6318,28 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D184" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G184" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -6350,28 +6350,28 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D185" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G185" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -6379,7 +6379,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>-0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6397,13 +6397,13 @@
         <v>-0</v>
       </c>
       <c r="H186" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -6411,7 +6411,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>-0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6429,13 +6429,13 @@
         <v>-0</v>
       </c>
       <c r="H187" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -6493,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -6510,28 +6510,28 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H190" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="191">
@@ -6539,31 +6539,31 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C191" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F191" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H191" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -6571,31 +6571,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C192" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F192" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H192" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -6621,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="194">
@@ -6638,28 +6638,28 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D194" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G194" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -6670,28 +6670,28 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D195" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G195" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -6699,7 +6699,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>-0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -6717,13 +6717,13 @@
         <v>-0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="197">
@@ -6731,7 +6731,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>-0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6749,13 +6749,13 @@
         <v>-0</v>
       </c>
       <c r="H197" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -6766,28 +6766,28 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D198" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G198" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="199">
@@ -6798,28 +6798,28 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D199" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G199" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -6830,28 +6830,28 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D200" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G200" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>124.65</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -6862,28 +6862,28 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D201" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G201" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0.54</v>
+        <v>2.01</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>124.65</v>
+        <v>99.11</v>
       </c>
     </row>
   </sheetData>

--- a/Somalia-COVID-impact/Results_COVID_Measles_National.xlsx
+++ b/Somalia-COVID-impact/Results_COVID_Measles_National.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="National" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,31 +523,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.64</v>
+        <v>15.7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D3" t="n">
         <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.45</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="J3" t="n">
-        <v>68.48999999999999</v>
+        <v>68.70999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.89</v>
+        <v>9.08</v>
       </c>
       <c r="C4" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="D4" t="n">
         <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="F4" t="n">
         <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>15.16</v>
+        <v>13.03</v>
       </c>
       <c r="I4" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="J4" t="n">
-        <v>74.73999999999999</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="5">
@@ -587,31 +587,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.27</v>
+        <v>5.26</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="D5" t="n">
         <v>0.03</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>15.95</v>
+        <v>13.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="J5" t="n">
-        <v>78.17</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="6">
@@ -619,31 +619,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.31</v>
+        <v>3.06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>16.23</v>
+        <v>13.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="7">
@@ -651,31 +651,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.02</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.23</v>
+        <v>13.68</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20999999999999</v>
+        <v>83.34999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -683,16 +683,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.68</v>
+        <v>1.04</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16.07</v>
+        <v>13.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>81.89</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -715,16 +715,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.81</v>
+        <v>13.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
-        <v>82.34999999999999</v>
+        <v>84.86</v>
       </c>
     </row>
     <row r="10">
@@ -747,31 +747,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.49</v>
+        <v>13.12</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>82.69</v>
+        <v>85.29000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -779,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.01</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>15.13</v>
+        <v>12.86</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>82.97</v>
+        <v>85.61</v>
       </c>
     </row>
     <row r="12">
@@ -811,13 +811,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.01</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.75</v>
+        <v>12.58</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
-        <v>83.23</v>
+        <v>85.89</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>0.01</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14.34</v>
+        <v>12.28</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="J13" t="n">
-        <v>83.48</v>
+        <v>86.14</v>
       </c>
     </row>
     <row r="14">
@@ -875,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.92</v>
+        <v>11.98</v>
       </c>
       <c r="I14" t="n">
-        <v>3.44</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>83.73999999999999</v>
+        <v>86.37</v>
       </c>
     </row>
     <row r="15">
@@ -907,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>13.49</v>
+        <v>11.67</v>
       </c>
       <c r="I15" t="n">
-        <v>3.62</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.04</v>
+        <v>11.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.08</v>
       </c>
       <c r="J16" t="n">
-        <v>84.27</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.6</v>
+        <v>11.04</v>
       </c>
       <c r="I17" t="n">
-        <v>3.97</v>
+        <v>3.18</v>
       </c>
       <c r="J17" t="n">
-        <v>84.55</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="18">
@@ -1021,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>12.14</v>
+        <v>10.72</v>
       </c>
       <c r="I18" t="n">
-        <v>4.14</v>
+        <v>3.26</v>
       </c>
       <c r="J18" t="n">
-        <v>84.84</v>
+        <v>87.29000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.69</v>
+        <v>10.41</v>
       </c>
       <c r="I19" t="n">
-        <v>4.29</v>
+        <v>3.34</v>
       </c>
       <c r="J19" t="n">
-        <v>85.14</v>
+        <v>87.53</v>
       </c>
     </row>
     <row r="20">
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>11.24</v>
+        <v>10.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.42</v>
+        <v>3.41</v>
       </c>
       <c r="J20" t="n">
-        <v>85.45</v>
+        <v>87.77</v>
       </c>
     </row>
     <row r="21">
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10.8</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>4.55</v>
+        <v>3.48</v>
       </c>
       <c r="J21" t="n">
-        <v>85.77</v>
+        <v>88.01000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>10.36</v>
+        <v>9.49</v>
       </c>
       <c r="I22" t="n">
-        <v>4.66</v>
+        <v>3.53</v>
       </c>
       <c r="J22" t="n">
-        <v>86.09999999999999</v>
+        <v>88.27</v>
       </c>
     </row>
     <row r="23">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.93</v>
+        <v>9.19</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>3.57</v>
       </c>
       <c r="J23" t="n">
-        <v>86.44</v>
+        <v>88.52</v>
       </c>
     </row>
     <row r="24">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.51</v>
+        <v>8.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.83</v>
+        <v>3.61</v>
       </c>
       <c r="J24" t="n">
-        <v>86.78</v>
+        <v>88.78</v>
       </c>
     </row>
     <row r="25">
@@ -1236,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.1</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>4.89</v>
+        <v>3.64</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13</v>
+        <v>89.04000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.710000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="I26" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>87.48</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="27">
@@ -1294,28 +1294,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>8.33</v>
+        <v>8.06</v>
       </c>
       <c r="I27" t="n">
-        <v>4.96</v>
+        <v>3.66</v>
       </c>
       <c r="J27" t="n">
-        <v>87.83</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="28">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="I28" t="n">
-        <v>4.97</v>
+        <v>3.66</v>
       </c>
       <c r="J28" t="n">
-        <v>88.18000000000001</v>
+        <v>89.81999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1355,31 +1355,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="I29" t="n">
-        <v>4.96</v>
+        <v>3.65</v>
       </c>
       <c r="J29" t="n">
-        <v>88.54000000000001</v>
+        <v>90.08</v>
       </c>
     </row>
     <row r="30">
@@ -1387,31 +1387,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.94</v>
+        <v>3.64</v>
       </c>
       <c r="J30" t="n">
-        <v>88.89</v>
+        <v>90.34</v>
       </c>
     </row>
     <row r="31">
@@ -1419,7 +1419,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.97</v>
+        <v>7.07</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>3.61</v>
       </c>
       <c r="J31" t="n">
-        <v>89.23999999999999</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1451,31 +1451,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.67</v>
+        <v>6.84</v>
       </c>
       <c r="I32" t="n">
-        <v>4.85</v>
+        <v>3.58</v>
       </c>
       <c r="J32" t="n">
-        <v>89.59</v>
+        <v>90.86</v>
       </c>
     </row>
     <row r="33">
@@ -1483,31 +1483,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.39</v>
+        <v>6.63</v>
       </c>
       <c r="I33" t="n">
-        <v>4.79</v>
+        <v>3.54</v>
       </c>
       <c r="J33" t="n">
-        <v>89.94</v>
+        <v>91.11</v>
       </c>
     </row>
     <row r="34">
@@ -1515,31 +1515,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.12</v>
+        <v>6.42</v>
       </c>
       <c r="I34" t="n">
-        <v>4.72</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>90.28</v>
+        <v>91.36</v>
       </c>
     </row>
     <row r="35">
@@ -1550,28 +1550,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.87</v>
+        <v>6.22</v>
       </c>
       <c r="I35" t="n">
-        <v>4.64</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>90.61</v>
+        <v>91.61</v>
       </c>
     </row>
     <row r="36">
@@ -1582,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>5.63</v>
+        <v>6.04</v>
       </c>
       <c r="I36" t="n">
-        <v>4.55</v>
+        <v>3.39</v>
       </c>
       <c r="J36" t="n">
-        <v>90.94</v>
+        <v>91.86</v>
       </c>
     </row>
     <row r="37">
@@ -1614,28 +1614,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.41</v>
+        <v>5.86</v>
       </c>
       <c r="I37" t="n">
-        <v>4.45</v>
+        <v>3.33</v>
       </c>
       <c r="J37" t="n">
-        <v>91.26000000000001</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1646,28 +1646,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="I38" t="n">
-        <v>4.35</v>
+        <v>3.27</v>
       </c>
       <c r="J38" t="n">
-        <v>91.58</v>
+        <v>92.33</v>
       </c>
     </row>
     <row r="39">
@@ -1675,31 +1675,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>5.52</v>
       </c>
       <c r="I39" t="n">
-        <v>4.24</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>91.88</v>
+        <v>92.56</v>
       </c>
     </row>
     <row r="40">
@@ -1707,7 +1707,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1725,13 +1725,13 @@
         <v>-0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.82</v>
+        <v>5.37</v>
       </c>
       <c r="I40" t="n">
-        <v>4.12</v>
+        <v>3.13</v>
       </c>
       <c r="J40" t="n">
-        <v>92.18000000000001</v>
+        <v>92.79000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1742,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.64</v>
+        <v>5.22</v>
       </c>
       <c r="I41" t="n">
-        <v>4.01</v>
+        <v>3.05</v>
       </c>
       <c r="J41" t="n">
-        <v>92.47</v>
+        <v>93.01000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1789,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.48</v>
+        <v>5.08</v>
       </c>
       <c r="I42" t="n">
-        <v>3.89</v>
+        <v>2.98</v>
       </c>
       <c r="J42" t="n">
-        <v>92.75</v>
+        <v>93.22</v>
       </c>
     </row>
     <row r="43">
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.33</v>
+        <v>4.95</v>
       </c>
       <c r="I43" t="n">
-        <v>3.76</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>93.03</v>
+        <v>93.43000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1835,7 +1835,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>-0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>-0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.19</v>
+        <v>4.82</v>
       </c>
       <c r="I44" t="n">
-        <v>3.64</v>
+        <v>2.82</v>
       </c>
       <c r="J44" t="n">
-        <v>93.29000000000001</v>
+        <v>93.64</v>
       </c>
     </row>
     <row r="45">
@@ -1885,13 +1885,13 @@
         <v>-0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.05</v>
+        <v>4.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3.52</v>
+        <v>2.74</v>
       </c>
       <c r="J45" t="n">
-        <v>93.55</v>
+        <v>93.84</v>
       </c>
     </row>
     <row r="46">
@@ -1917,13 +1917,13 @@
         <v>-0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.93</v>
+        <v>4.59</v>
       </c>
       <c r="I46" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="J46" t="n">
-        <v>93.79000000000001</v>
+        <v>94.03</v>
       </c>
     </row>
     <row r="47">
@@ -1949,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.81</v>
+        <v>4.48</v>
       </c>
       <c r="I47" t="n">
-        <v>3.27</v>
+        <v>2.58</v>
       </c>
       <c r="J47" t="n">
-        <v>94.03</v>
+        <v>94.22</v>
       </c>
     </row>
     <row r="48">
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>4.38</v>
       </c>
       <c r="I48" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
-        <v>94.26000000000001</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1998,28 +1998,28 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>4.28</v>
       </c>
       <c r="I49" t="n">
-        <v>3.03</v>
+        <v>2.42</v>
       </c>
       <c r="J49" t="n">
-        <v>94.48</v>
+        <v>94.58</v>
       </c>
     </row>
     <row r="50">
@@ -2027,7 +2027,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
         <v>-0</v>
       </c>
       <c r="H50" t="n">
-        <v>3.51</v>
+        <v>4.19</v>
       </c>
       <c r="I50" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="J50" t="n">
-        <v>94.69</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="51">
@@ -2059,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>-0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2077,13 +2077,13 @@
         <v>-0</v>
       </c>
       <c r="H51" t="n">
-        <v>3.42</v>
+        <v>4.11</v>
       </c>
       <c r="I51" t="n">
-        <v>2.8</v>
+        <v>2.27</v>
       </c>
       <c r="J51" t="n">
-        <v>94.90000000000001</v>
+        <v>94.91</v>
       </c>
     </row>
     <row r="52">
@@ -2109,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>3.34</v>
+        <v>4.03</v>
       </c>
       <c r="I52" t="n">
-        <v>2.69</v>
+        <v>2.19</v>
       </c>
       <c r="J52" t="n">
-        <v>95.09</v>
+        <v>95.06999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3.26</v>
+        <v>3.95</v>
       </c>
       <c r="I53" t="n">
-        <v>2.58</v>
+        <v>2.11</v>
       </c>
       <c r="J53" t="n">
-        <v>95.28</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="54">
@@ -2173,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>3.18</v>
+        <v>3.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="J54" t="n">
-        <v>95.45999999999999</v>
+        <v>95.37</v>
       </c>
     </row>
     <row r="55">
@@ -2187,7 +2187,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>-0</v>
       </c>
       <c r="E55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>-0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.12</v>
+        <v>3.81</v>
       </c>
       <c r="I55" t="n">
-        <v>2.37</v>
+        <v>1.96</v>
       </c>
       <c r="J55" t="n">
-        <v>95.64</v>
+        <v>95.51000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2228,7 +2228,7 @@
         <v>-0</v>
       </c>
       <c r="E56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2237,13 +2237,13 @@
         <v>-0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.05</v>
+        <v>3.74</v>
       </c>
       <c r="I56" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="J56" t="n">
-        <v>95.8</v>
+        <v>95.65000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2269,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2.99</v>
+        <v>3.68</v>
       </c>
       <c r="I57" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="J57" t="n">
-        <v>95.95999999999999</v>
+        <v>95.78</v>
       </c>
     </row>
     <row r="58">
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.93</v>
+        <v>3.62</v>
       </c>
       <c r="I58" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="J58" t="n">
-        <v>96.11</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="59">
@@ -2318,28 +2318,28 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>-0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.88</v>
+        <v>3.56</v>
       </c>
       <c r="I59" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="J59" t="n">
-        <v>96.26000000000001</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="60">
@@ -2347,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>-0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="I60" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="J60" t="n">
-        <v>96.39</v>
+        <v>96.15000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -2379,31 +2379,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H61" t="n">
-        <v>2.78</v>
+        <v>3.46</v>
       </c>
       <c r="I61" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="J61" t="n">
-        <v>96.53</v>
+        <v>96.27</v>
       </c>
     </row>
     <row r="62">
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.74</v>
+        <v>3.42</v>
       </c>
       <c r="I62" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="J62" t="n">
-        <v>96.65000000000001</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="63">
@@ -2461,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.7</v>
+        <v>3.37</v>
       </c>
       <c r="I63" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="J63" t="n">
-        <v>96.77</v>
+        <v>96.48</v>
       </c>
     </row>
     <row r="64">
@@ -2484,7 +2484,7 @@
         <v>-0</v>
       </c>
       <c r="E64" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>-0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.66</v>
+        <v>3.33</v>
       </c>
       <c r="I64" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="J64" t="n">
-        <v>96.89</v>
+        <v>96.58</v>
       </c>
     </row>
     <row r="65">
@@ -2507,7 +2507,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>-0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2525,13 +2525,13 @@
         <v>-0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.62</v>
+        <v>3.29</v>
       </c>
       <c r="I65" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="J65" t="n">
-        <v>97</v>
+        <v>96.68000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -2539,31 +2539,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.59</v>
+        <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="J66" t="n">
-        <v>97.09999999999999</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="67">
@@ -2571,31 +2571,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.56</v>
+        <v>3.21</v>
       </c>
       <c r="I67" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="J67" t="n">
-        <v>97.2</v>
+        <v>96.86</v>
       </c>
     </row>
     <row r="68">
@@ -2603,31 +2603,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2.53</v>
+        <v>3.18</v>
       </c>
       <c r="I68" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="J68" t="n">
-        <v>97.3</v>
+        <v>96.94</v>
       </c>
     </row>
     <row r="69">
@@ -2635,31 +2635,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G69" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="I69" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="J69" t="n">
-        <v>97.39</v>
+        <v>97.02</v>
       </c>
     </row>
     <row r="70">
@@ -2685,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2.47</v>
+        <v>3.12</v>
       </c>
       <c r="I70" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="J70" t="n">
-        <v>97.47</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -2702,28 +2702,28 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H71" t="n">
-        <v>2.45</v>
+        <v>3.09</v>
       </c>
       <c r="I71" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="J71" t="n">
-        <v>97.55</v>
+        <v>97.17</v>
       </c>
     </row>
     <row r="72">
@@ -2734,28 +2734,28 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H72" t="n">
-        <v>2.42</v>
+        <v>3.06</v>
       </c>
       <c r="I72" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="J72" t="n">
-        <v>97.63</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="73">
@@ -2763,31 +2763,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
       <c r="I73" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="J73" t="n">
-        <v>97.70999999999999</v>
+        <v>97.31</v>
       </c>
     </row>
     <row r="74">
@@ -2795,31 +2795,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.38</v>
+        <v>3.01</v>
       </c>
       <c r="I74" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="J74" t="n">
-        <v>97.78</v>
+        <v>97.38</v>
       </c>
     </row>
     <row r="75">
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>2.36</v>
+        <v>2.99</v>
       </c>
       <c r="I75" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="J75" t="n">
-        <v>97.84</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="76">
@@ -2862,28 +2862,28 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H76" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="I76" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="J76" t="n">
-        <v>97.91</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="77">
@@ -2894,28 +2894,28 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H77" t="n">
-        <v>2.32</v>
+        <v>2.94</v>
       </c>
       <c r="I77" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="J77" t="n">
-        <v>97.97</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="78">
@@ -2923,31 +2923,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2.31</v>
+        <v>2.92</v>
       </c>
       <c r="I78" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J78" t="n">
-        <v>98.03</v>
+        <v>97.61</v>
       </c>
     </row>
     <row r="79">
@@ -2955,31 +2955,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2.29</v>
+        <v>2.9</v>
       </c>
       <c r="I79" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="J79" t="n">
-        <v>98.08</v>
+        <v>97.67</v>
       </c>
     </row>
     <row r="80">
@@ -2990,28 +2990,28 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.27</v>
+        <v>2.88</v>
       </c>
       <c r="I80" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="J80" t="n">
-        <v>98.13</v>
+        <v>97.72</v>
       </c>
     </row>
     <row r="81">
@@ -3019,31 +3019,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H81" t="n">
-        <v>2.26</v>
+        <v>2.87</v>
       </c>
       <c r="I81" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="J81" t="n">
-        <v>98.18000000000001</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -3051,31 +3051,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H82" t="n">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="I82" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="J82" t="n">
-        <v>98.23</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="83">
@@ -3086,28 +3086,28 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="I83" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="J83" t="n">
-        <v>98.27</v>
+        <v>97.84999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -3118,28 +3118,28 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="I84" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J84" t="n">
-        <v>98.31999999999999</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="85">
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>2.21</v>
+        <v>2.81</v>
       </c>
       <c r="I85" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="J85" t="n">
-        <v>98.36</v>
+        <v>97.93000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -3179,31 +3179,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="I86" t="n">
         <v>0.52</v>
       </c>
       <c r="J86" t="n">
-        <v>98.40000000000001</v>
+        <v>97.97</v>
       </c>
     </row>
     <row r="87">
@@ -3211,31 +3211,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.19</v>
+        <v>2.78</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J87" t="n">
-        <v>98.43000000000001</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -3243,7 +3243,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>-0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3261,13 +3261,13 @@
         <v>-0</v>
       </c>
       <c r="H88" t="n">
-        <v>2.18</v>
+        <v>2.77</v>
       </c>
       <c r="I88" t="n">
         <v>0.47</v>
       </c>
       <c r="J88" t="n">
-        <v>98.47</v>
+        <v>98.04000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -3293,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="I89" t="n">
         <v>0.45</v>
       </c>
       <c r="J89" t="n">
-        <v>98.5</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="90">
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="I90" t="n">
         <v>0.43</v>
       </c>
       <c r="J90" t="n">
-        <v>98.53</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="91">
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="J91" t="n">
-        <v>98.56</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="92">
@@ -3371,7 +3371,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>-0</v>
       </c>
       <c r="E92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>-0</v>
       </c>
       <c r="H92" t="n">
-        <v>2.15</v>
+        <v>2.73</v>
       </c>
       <c r="I92" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="J92" t="n">
-        <v>98.59</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="93">
@@ -3403,7 +3403,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>-0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         <v>-0</v>
       </c>
       <c r="H93" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="I93" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="J93" t="n">
-        <v>98.61</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="94">
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="I94" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="J94" t="n">
-        <v>98.64</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="95">
@@ -3485,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>2.13</v>
+        <v>2.7</v>
       </c>
       <c r="I95" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J95" t="n">
-        <v>98.66</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -3502,28 +3502,28 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2.12</v>
+        <v>2.69</v>
       </c>
       <c r="I96" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J96" t="n">
-        <v>98.69</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="97">
@@ -3531,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>-0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>-0</v>
       </c>
       <c r="H97" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="I97" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="J97" t="n">
-        <v>98.70999999999999</v>
+        <v>98.29000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -3563,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>-0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>-0</v>
       </c>
       <c r="H98" t="n">
-        <v>2.11</v>
+        <v>2.68</v>
       </c>
       <c r="I98" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="J98" t="n">
-        <v>98.73</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="99">
@@ -3613,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="I99" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="J99" t="n">
-        <v>98.75</v>
+        <v>98.33</v>
       </c>
     </row>
     <row r="100">
@@ -3645,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="I100" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="J100" t="n">
-        <v>98.77</v>
+        <v>98.34999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -3662,28 +3662,28 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H101" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="I101" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="J101" t="n">
-        <v>98.78</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="102">
@@ -3709,13 +3709,13 @@
         <v>-0</v>
       </c>
       <c r="H102" t="n">
-        <v>2.09</v>
+        <v>2.65</v>
       </c>
       <c r="I102" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J102" t="n">
-        <v>98.8</v>
+        <v>98.39</v>
       </c>
     </row>
     <row r="103">
@@ -3723,7 +3723,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>-0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3741,13 +3741,13 @@
         <v>-0</v>
       </c>
       <c r="H103" t="n">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="I103" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="J103" t="n">
-        <v>98.81999999999999</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="104">
@@ -3773,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J104" t="n">
-        <v>98.83</v>
+        <v>98.42</v>
       </c>
     </row>
     <row r="105">
@@ -3805,13 +3805,13 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="I105" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="J105" t="n">
-        <v>98.84999999999999</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="106">
@@ -3822,28 +3822,28 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="I106" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J106" t="n">
-        <v>98.86</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="107">
@@ -3869,13 +3869,13 @@
         <v>-0</v>
       </c>
       <c r="H107" t="n">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="I107" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="J107" t="n">
-        <v>98.87</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="108">
@@ -3883,31 +3883,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H108" t="n">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="I108" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J108" t="n">
-        <v>98.88</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="109">
@@ -3915,31 +3915,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H109" t="n">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="I109" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J109" t="n">
-        <v>98.90000000000001</v>
+        <v>98.48999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -3965,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>2.06</v>
+        <v>2.61</v>
       </c>
       <c r="I110" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J110" t="n">
-        <v>98.91</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="111">
@@ -3979,31 +3979,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>2.06</v>
+        <v>2.61</v>
       </c>
       <c r="I111" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J111" t="n">
-        <v>98.92</v>
+        <v>98.52</v>
       </c>
     </row>
     <row r="112">
@@ -4011,31 +4011,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="I112" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J112" t="n">
-        <v>98.93000000000001</v>
+        <v>98.53</v>
       </c>
     </row>
     <row r="113">
@@ -4046,28 +4046,28 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H113" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="I113" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="J113" t="n">
-        <v>98.94</v>
+        <v>98.54000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4078,28 +4078,28 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H114" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="I114" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J114" t="n">
-        <v>98.94</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="115">
@@ -4110,28 +4110,28 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>2.05</v>
+        <v>2.59</v>
       </c>
       <c r="I115" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J115" t="n">
-        <v>98.95</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="116">
@@ -4139,31 +4139,31 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>2.05</v>
+        <v>2.59</v>
       </c>
       <c r="I116" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J116" t="n">
-        <v>98.95999999999999</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4171,31 +4171,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G117" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>2.05</v>
+        <v>2.59</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J117" t="n">
-        <v>98.97</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="118">
@@ -4206,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H118" t="n">
-        <v>2.05</v>
+        <v>2.59</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J118" t="n">
-        <v>98.98</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="119">
@@ -4238,28 +4238,28 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H119" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="I119" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="J119" t="n">
-        <v>98.98</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="120">
@@ -4270,28 +4270,28 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G120" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="I120" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J120" t="n">
-        <v>98.98999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4299,31 +4299,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G121" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="I121" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J121" t="n">
-        <v>99</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="122">
@@ -4349,13 +4349,13 @@
         <v>-0</v>
       </c>
       <c r="H122" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="I122" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J122" t="n">
-        <v>99</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="123">
@@ -4363,31 +4363,31 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H123" t="n">
-        <v>2.04</v>
+        <v>2.57</v>
       </c>
       <c r="I123" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="J123" t="n">
-        <v>99.01000000000001</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="124">
@@ -4395,31 +4395,31 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F124" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H124" t="n">
-        <v>2.04</v>
+        <v>2.57</v>
       </c>
       <c r="I124" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J124" t="n">
-        <v>99.01000000000001</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="125">
@@ -4430,28 +4430,28 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G125" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>2.03</v>
+        <v>2.57</v>
       </c>
       <c r="I125" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J125" t="n">
-        <v>99.02</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="126">
@@ -4459,31 +4459,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G126" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2.03</v>
+        <v>2.57</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J126" t="n">
-        <v>99.02</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="127">
@@ -4494,28 +4494,28 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H127" t="n">
-        <v>2.03</v>
+        <v>2.57</v>
       </c>
       <c r="I127" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>99.03</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="128">
@@ -4523,31 +4523,31 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H128" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I128" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>99.03</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -4555,31 +4555,31 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F129" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H129" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I129" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>99.03</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -4605,13 +4605,13 @@
         <v>-0</v>
       </c>
       <c r="H130" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J130" t="n">
-        <v>99.04000000000001</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="131">
@@ -4622,28 +4622,28 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D131" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G131" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J131" t="n">
-        <v>99.04000000000001</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="132">
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J132" t="n">
-        <v>99.04000000000001</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="133">
@@ -4701,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I133" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J133" t="n">
-        <v>99.05</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="134">
@@ -4733,13 +4733,13 @@
         <v>-0</v>
       </c>
       <c r="H134" t="n">
-        <v>2.03</v>
+        <v>2.56</v>
       </c>
       <c r="I134" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J134" t="n">
-        <v>99.05</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="135">
@@ -4747,7 +4747,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>-0</v>
       </c>
       <c r="E135" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4765,13 +4765,13 @@
         <v>-0</v>
       </c>
       <c r="H135" t="n">
-        <v>2.03</v>
+        <v>2.55</v>
       </c>
       <c r="I135" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J135" t="n">
-        <v>99.05</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -4797,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I136" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J136" t="n">
-        <v>99.06</v>
+        <v>98.68000000000001</v>
       </c>
     </row>
     <row r="137">
@@ -4829,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I137" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J137" t="n">
-        <v>99.06</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="138">
@@ -4861,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I138" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J138" t="n">
-        <v>99.06</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="139">
@@ -4875,7 +4875,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>-0</v>
       </c>
       <c r="E139" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>-0</v>
       </c>
       <c r="H139" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I139" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J139" t="n">
-        <v>99.06</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="140">
@@ -4907,31 +4907,31 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G140" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I140" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J140" t="n">
-        <v>99.06999999999999</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="141">
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I141" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J141" t="n">
-        <v>99.06999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="142">
@@ -4989,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I142" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J142" t="n">
-        <v>99.06999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="143">
@@ -5006,28 +5006,28 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H143" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I143" t="n">
         <v>0.03</v>
       </c>
       <c r="J143" t="n">
-        <v>99.06999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="144">
@@ -5053,13 +5053,13 @@
         <v>-0</v>
       </c>
       <c r="H144" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I144" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J144" t="n">
-        <v>99.06999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="145">
@@ -5085,13 +5085,13 @@
         <v>-0</v>
       </c>
       <c r="H145" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I145" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J145" t="n">
-        <v>99.08</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -5117,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J146" t="n">
-        <v>99.08</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -5149,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I147" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J147" t="n">
-        <v>99.08</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -5166,28 +5166,28 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J148" t="n">
-        <v>99.08</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -5213,13 +5213,13 @@
         <v>-0</v>
       </c>
       <c r="H149" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I149" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J149" t="n">
-        <v>99.08</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -5245,13 +5245,13 @@
         <v>-0</v>
       </c>
       <c r="H150" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I150" t="n">
         <v>0.02</v>
       </c>
       <c r="J150" t="n">
-        <v>99.08</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="151">
@@ -5262,28 +5262,28 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H151" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I151" t="n">
         <v>0.02</v>
       </c>
       <c r="J151" t="n">
-        <v>99.08</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="152">
@@ -5309,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I152" t="n">
         <v>0.02</v>
       </c>
       <c r="J152" t="n">
-        <v>99.09</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="153">
@@ -5326,28 +5326,28 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D153" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G153" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I153" t="n">
         <v>0.02</v>
       </c>
       <c r="J153" t="n">
-        <v>99.09</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="154">
@@ -5355,31 +5355,31 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I154" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J154" t="n">
-        <v>99.09</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="155">
@@ -5390,28 +5390,28 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H155" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I155" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J155" t="n">
-        <v>99.09</v>
+        <v>98.72</v>
       </c>
     </row>
     <row r="156">
@@ -5422,28 +5422,28 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H156" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I156" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J156" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="157">
@@ -5469,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J157" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="158">
@@ -5483,31 +5483,31 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J158" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="159">
@@ -5515,31 +5515,31 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J159" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="160">
@@ -5550,28 +5550,28 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H160" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I160" t="n">
         <v>0.01</v>
       </c>
       <c r="J160" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="161">
@@ -5597,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I161" t="n">
         <v>0.01</v>
       </c>
       <c r="J161" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="162">
@@ -5614,28 +5614,28 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I162" t="n">
         <v>0.01</v>
       </c>
       <c r="J162" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="163">
@@ -5643,31 +5643,31 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I163" t="n">
         <v>0.01</v>
       </c>
       <c r="J163" t="n">
-        <v>99.09</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="164">
@@ -5675,7 +5675,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>-0</v>
       </c>
       <c r="E164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5693,13 +5693,13 @@
         <v>-0</v>
       </c>
       <c r="H164" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I164" t="n">
         <v>0.01</v>
       </c>
       <c r="J164" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="165">
@@ -5707,31 +5707,31 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C165" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F165" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H165" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I165" t="n">
         <v>0.01</v>
       </c>
       <c r="J165" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="166">
@@ -5739,31 +5739,31 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C166" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F166" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H166" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I166" t="n">
         <v>0.01</v>
       </c>
       <c r="J166" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -5771,31 +5771,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I167" t="n">
         <v>0.01</v>
       </c>
       <c r="J167" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5803,31 +5803,31 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D168" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G168" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I168" t="n">
         <v>0.01</v>
       </c>
       <c r="J168" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="169">
@@ -5844,7 +5844,7 @@
         <v>-0</v>
       </c>
       <c r="E169" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5853,13 +5853,13 @@
         <v>-0</v>
       </c>
       <c r="H169" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I169" t="n">
         <v>0.01</v>
       </c>
       <c r="J169" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -5867,31 +5867,31 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C170" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F170" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H170" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I170" t="n">
         <v>0.01</v>
       </c>
       <c r="J170" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -5899,31 +5899,31 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C171" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F171" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H171" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I171" t="n">
         <v>0.01</v>
       </c>
       <c r="J171" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -5934,28 +5934,28 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D172" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G172" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>2.01</v>
+        <v>2.54</v>
       </c>
       <c r="I172" t="n">
         <v>0.01</v>
       </c>
       <c r="J172" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="173">
@@ -5963,31 +5963,31 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D173" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G173" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I173" t="n">
         <v>0.01</v>
       </c>
       <c r="J173" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -6013,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J174" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -6045,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J175" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -6062,28 +6062,28 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H176" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J176" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -6109,13 +6109,13 @@
         <v>-0</v>
       </c>
       <c r="H177" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J177" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="178">
@@ -6123,31 +6123,31 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G178" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J178" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J179" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="180">
@@ -6190,28 +6190,28 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H180" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J180" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="181">
@@ -6222,28 +6222,28 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H181" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J181" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -6251,31 +6251,31 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D182" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G182" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J182" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -6301,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="184">
@@ -6333,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>99.09999999999999</v>
+        <v>98.73999999999999</v>
       </c>
     </row>
     <row r="185">
@@ -6350,28 +6350,28 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H185" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="186">
@@ -6397,13 +6397,13 @@
         <v>-0</v>
       </c>
       <c r="H186" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="187">
@@ -6429,13 +6429,13 @@
         <v>-0</v>
       </c>
       <c r="H187" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="188">
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="189">
@@ -6493,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="190">
@@ -6525,13 +6525,13 @@
         <v>-0</v>
       </c>
       <c r="H190" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="191">
@@ -6557,13 +6557,13 @@
         <v>-0</v>
       </c>
       <c r="H191" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="192">
@@ -6589,13 +6589,13 @@
         <v>-0</v>
       </c>
       <c r="H192" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="193">
@@ -6621,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="194">
@@ -6653,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="195">
@@ -6685,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="196">
@@ -6699,31 +6699,31 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D196" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G196" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="197">
@@ -6731,7 +6731,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>-0</v>
       </c>
       <c r="E197" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6749,13 +6749,13 @@
         <v>-0</v>
       </c>
       <c r="H197" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="198">
@@ -6781,13 +6781,13 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="199">
@@ -6813,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="200">
@@ -6845,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>99.09999999999999</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="201">
@@ -6877,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>2.01</v>
+        <v>2.53</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>99.11</v>
+        <v>98.75</v>
       </c>
     </row>
   </sheetData>
